--- a/DOC/urls.xlsx
+++ b/DOC/urls.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8FAB54B-360E-4C88-8487-42FB2D70E2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\MyShare\DOC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE1385-AB89-4ED1-B723-2674A06B6EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="name page" sheetId="2" r:id="rId1"/>
+    <sheet name="Аркуш1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -19,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="136">
   <si>
     <t>Назва сторінки</t>
   </si>
@@ -60,9 +64,6 @@
     <t>registration</t>
   </si>
   <si>
-    <t>посилання</t>
-  </si>
-  <si>
     <t>page 5</t>
   </si>
   <si>
@@ -138,9 +139,6 @@
     <t>Хочу допомогти фінансово</t>
   </si>
   <si>
-    <t>чекбокс</t>
-  </si>
-  <si>
     <t>Хочу допомогти фізично</t>
   </si>
   <si>
@@ -150,9 +148,6 @@
     <t>Обрати населений пункт</t>
   </si>
   <si>
-    <t>список</t>
-  </si>
-  <si>
     <t>Обрати випадково</t>
   </si>
   <si>
@@ -189,9 +184,6 @@
     <t>Пошук за прізвищем</t>
   </si>
   <si>
-    <t>текстове поле</t>
-  </si>
-  <si>
     <t>Знайти</t>
   </si>
   <si>
@@ -225,9 +217,6 @@
     <t>додати до закладок</t>
   </si>
   <si>
-    <t>кнопка</t>
-  </si>
-  <si>
     <t>історія допомог</t>
   </si>
   <si>
@@ -249,9 +238,6 @@
     <t>ім'я бенефіціара</t>
   </si>
   <si>
-    <t>лейбл</t>
-  </si>
-  <si>
     <t>загальна інформація</t>
   </si>
   <si>
@@ -279,9 +265,6 @@
     <t xml:space="preserve">перелік існуючих списків </t>
   </si>
   <si>
-    <t>створити список</t>
-  </si>
-  <si>
     <t>додати</t>
   </si>
   <si>
@@ -361,18 +344,122 @@
   </si>
   <si>
     <t>графік</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>controls</t>
+  </si>
+  <si>
+    <t>All pages</t>
+  </si>
+  <si>
+    <t>про нас</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>page 2</t>
+  </si>
+  <si>
+    <t>Загальні звіти про допомогу</t>
+  </si>
+  <si>
+    <t>general_reports</t>
+  </si>
+  <si>
+    <t>Подяки відгуки</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>вхід</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>регістрація</t>
+  </si>
+  <si>
+    <t>user_registration</t>
+  </si>
+  <si>
+    <t>На головну</t>
+  </si>
+  <si>
+    <t>Наші партнери</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>Стати партнером</t>
+  </si>
+  <si>
+    <t>partners\new</t>
+  </si>
+  <si>
+    <t>Підтримати проект</t>
+  </si>
+  <si>
+    <t>finance_the_project</t>
+  </si>
+  <si>
+    <t>Сповістити про шахрайство</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>хочу допомогти</t>
+  </si>
+  <si>
+    <t>combobox</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>створити list</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>textBox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,6 +480,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242438"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -439,10 +531,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -450,26 +543,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -482,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -497,12 +590,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний 2" xfId="1" xr:uid="{49679E12-C4C4-4841-9A20-AB878A9469BA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -518,9 +614,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -558,7 +654,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -664,7 +760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -813,24 +909,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6C102F-EC2B-4900-8F37-8F0C045CF754}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="75" style="16" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,7 +962,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
@@ -854,1044 +975,1270 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"&lt;li&gt;&lt;a href= "" /"&amp;C2&amp;"""&gt;"&amp;B2&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= " /about"&gt;про нас&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E14" si="0">"&lt;li&gt;&lt;a href= "" /"&amp;C3&amp;"""&gt;"&amp;B3&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= " /general_reports"&gt;Загальні звіти про допомогу&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"trtrt"&amp;"/"&amp;C3</f>
+        <v>trtrt/general_reports</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /feedback"&gt;Подяки відгуки&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /login"&gt;вхід&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /user_registration"&gt;регістрація&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /index"&gt;На головну&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /partners"&gt;Наші партнери&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /partners\new"&gt;Стати партнером&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /finance_the_project"&gt;Підтримати проект&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /police"&gt;Сповістити про шахрайство&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;li&gt;&lt;a href= " /donate\main"&gt;хочу допомогти&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="18" t="str">
+        <f>"&lt;a href= ""/"&amp;C15&amp;"""&gt;"&amp;B15&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/registration"&gt;реєстрація&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C2&amp;"""&gt;"&amp;B2&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/registration"&gt;реєстрація&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f t="shared" ref="E16:E25" si="1">"&lt;li&gt;&lt;a href= ""/"&amp;C16&amp;"""&gt;"&amp;B16&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= "/chats"&gt;чати&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/alarm"&gt;будильник&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C3&amp;"""&gt;"&amp;B3&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/chats"&gt;чати&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/bookmarks"&gt;закладки&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C4&amp;"""&gt;"&amp;B4&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/alarm"&gt;будильник&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/reports"&gt;звіти&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C5&amp;"""&gt;"&amp;B5&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/bookmarks"&gt;закладки&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/activity"&gt;активність&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C6&amp;"""&gt;"&amp;B6&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/reports"&gt;звіти&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/history_of_aid_granted"&gt;історія наданних допомог&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C7&amp;"""&gt;"&amp;B7&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/activity"&gt;активність&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C8&amp;"""&gt;"&amp;B8&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/history_of_aid_granted"&gt;історія наданних допомог&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/leave_review_about_the_service"&gt;залшити відгук про сервіс&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C9&amp;"""&gt;"&amp;B9&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/leave_review_about_the_service"&gt;залшити відгук про сервіс&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/financial aid"&gt;фінансова допомога&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C10&amp;"""&gt;"&amp;B10&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/financial aid"&gt;фінансова допомога&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/commodity aid"&gt;товарна допомога&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C11&amp;"""&gt;"&amp;B11&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/commodity aid"&gt;товарна допомога&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;&lt;a href= "/physical aid"&gt;фізична допомога&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C12&amp;"""&gt;"&amp;B12&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/physical aid"&gt;фізична допомога&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B14&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фінансово&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B15&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фізично&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B16&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти товарно&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="21" t="str">
-        <f>"&lt;a href= ""/"&amp;C19&amp;"""&gt;"&amp;B19&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/thermometer"&gt;Термометр&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B21&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фінансово&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B22&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фізично&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B23&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти товарно&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A25" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B25&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Нові&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B26&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Кому ніколи не допомогали&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="E27" s="18" t="str">
         <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B27&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Похилий вік&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" customHeight="1">
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фінансово&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="E28" s="18" t="str">
         <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B28&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Сироти&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фізично&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="E29" s="18" t="str">
         <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B29&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Інваліди&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1">
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти товарно&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B30&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Прізвище&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C33&amp;"""&gt;"&amp;B33&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/filter"&gt;фільтр&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>132</v>
+      </c>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="21" t="str">
+        <f>"&lt;a href= ""/"&amp;C32&amp;"""&gt;"&amp;B32&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/thermometer"&gt;Термометр&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E34" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C34&amp;"""&gt;"&amp;B34&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/randomizer"&gt;рандомайзер&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1">
+        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B34&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фінансово&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="E35" s="18" t="str">
+        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B35&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фізично&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E36" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C36&amp;"""&gt;"&amp;B36&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/chat"&gt;чат&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1">
+        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B36&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти товарно&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B37&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;додати до закладок&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>132</v>
+      </c>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E38" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C38&amp;"""&gt;"&amp;B38&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/aid_history"&gt;історія допомог&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1">
+        <f t="shared" ref="E38:E43" si="2">"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B38&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Нові&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E39" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C39&amp;"""&gt;"&amp;B39&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/remind"&gt;нагадати&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Кому ніколи не допомогали&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="E40" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C40&amp;"""&gt;"&amp;B40&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/complaint"&gt;скарга&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Похилий вік&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="E41" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Сироти&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="E42" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Інваліди&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="E43" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Прізвище&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1">
+    <row r="45" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="E46" s="18" t="str">
-        <f>"&lt;a name="""&amp;F46&amp; """ href= ""/"&amp;C46&amp;"""&gt;"&amp;B46&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a name="help" href= "/donate\main"&gt;допомогти&lt;/a&gt;</v>
-      </c>
-      <c r="F46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" t="str">
-        <f>F46&amp;"_id"</f>
-        <v>help_id</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1">
+        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C46&amp;"""&gt;"&amp;B46&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= "/filter"&gt;фільтр&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="E47" s="18" t="str">
+        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C47&amp;"""&gt;"&amp;B47&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= "/randomizer"&gt;рандомайзер&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B48&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;створити список&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.25" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D49" s="1" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E49" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B49&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;додати&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.25" customHeight="1">
+        <f>"&lt;a href= ""/"&amp;C49&amp;"""&gt;"&amp;B49&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/chat"&gt;чат&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="51" spans="1:5" ht="14.25" customHeight="1">
+        <v>127</v>
+      </c>
+      <c r="E50" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B50&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;додати до закладок&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="18"/>
-    </row>
-    <row r="52" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A52" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="22"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.25" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="E51" s="18" t="str">
+        <f>"&lt;a href= ""/"&amp;C51&amp;"""&gt;"&amp;B51&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/aid_history"&gt;історія допомог&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="18" t="str">
+        <f>"&lt;a href= ""/"&amp;C52&amp;"""&gt;"&amp;B52&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/remind"&gt;нагадати&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:5" ht="14.25" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="E53" s="18" t="str">
+        <f>"&lt;a href= ""/"&amp;C53&amp;"""&gt;"&amp;B53&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/complaint"&gt;скарга&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C54&amp;"""&gt;"&amp;B54&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/apply_help"&gt;Оформити допомогу&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14.25" customHeight="1">
+        <v>134</v>
+      </c>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:5" ht="14.25" customHeight="1">
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D59" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="18"/>
-    </row>
-    <row r="60" spans="1:5" ht="14.25" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="E59" s="18" t="str">
+        <f>"&lt;a name="""&amp;F59&amp; """ href= ""/"&amp;C59&amp;"""&gt;"&amp;B59&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a name="help" href= "/donate\main"&gt;допомогти&lt;/a&gt;</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" t="str">
+        <f>F59&amp;"_id"</f>
+        <v>help_id</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:5" ht="14.25" customHeight="1">
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="18"/>
-    </row>
-    <row r="62" spans="1:5" ht="14.25" customHeight="1">
+        <v>127</v>
+      </c>
+      <c r="E61" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B61&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;створити list&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E62" s="18" t="str">
         <f>"&lt;button&gt;"&amp;B62&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;ок&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="14.25" customHeight="1">
+        <v>&lt;button&gt;додати&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="1:5" ht="14.25" customHeight="1">
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="18"/>
-    </row>
-    <row r="66" spans="1:5" ht="14.25" customHeight="1">
+    <row r="65" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E66" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B66&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;створити&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14.25" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="E66" s="18"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D67" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" s="18"/>
-    </row>
-    <row r="68" spans="1:5" ht="14.25" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="E67" s="18" t="str">
+        <f>"&lt;a href= ""/"&amp;C67&amp;"""&gt;"&amp;B67&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/apply_help"&gt;Оформити допомогу&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B68&amp;"&lt;/button&gt;"</f>
+        <v>127</v>
+      </c>
+      <c r="E68" s="18"/>
+    </row>
+    <row r="69" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="19"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="18"/>
+    </row>
+    <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="18"/>
+    </row>
+    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="18"/>
+    </row>
+    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B75&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;ок&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="18"/>
+    </row>
+    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B79&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;створити&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="18"/>
+    </row>
+    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B81&amp;"&lt;/button&gt;"</f>
         <v>&lt;button&gt;опублікувати відгук&lt;/button&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="18"/>
+    <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/urls.xlsx
+++ b/DOC/urls.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="Workbook_______" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\MyShare\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE1385-AB89-4ED1-B723-2674A06B6EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58602ADC-9D55-40F2-A6E7-504E70D89127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="name page" sheetId="2" r:id="rId1"/>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId2"/>
+    <sheet name="Mariy" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mariy!$A$1:$I$92</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="142">
   <si>
     <t>Назва сторінки</t>
   </si>
@@ -43,9 +47,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>Назва єлементу</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -421,9 +422,6 @@
     <t>хочу допомогти</t>
   </si>
   <si>
-    <t>combobox</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -440,6 +438,30 @@
   </si>
   <si>
     <t>textBox</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>ddd_id</t>
+  </si>
+  <si>
+    <t>ddd_name</t>
+  </si>
+  <si>
+    <t>tabel</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>table</t>
   </si>
 </sst>
 </file>
@@ -535,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -595,6 +617,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -910,6 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6C102F-EC2B-4900-8F37-8F0C045CF754}">
+  <sheetPr codeName="Worksheet_____1"/>
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -923,7 +958,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -933,10 +968,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <sheetPr codeName="Worksheet_____2"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -945,7 +981,7 @@
     <col min="2" max="2" width="31.6640625" style="14" customWidth="1"/>
     <col min="3" max="3" width="31.5546875" style="15" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="81.88671875" style="16" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -959,1288 +995,1650 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="str">
+        <f>"test "&amp;D2</f>
+        <v>test radio</v>
+      </c>
+      <c r="C2" s="27"/>
       <c r="D2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" t="str">
-        <f>"&lt;li&gt;&lt;a href= "" /"&amp;C2&amp;"""&gt;"&amp;B2&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= " /about"&gt;про нас&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="E2" s="18" t="str">
+        <f>"&lt;p&gt;"&amp;
+IF(D2="radio","&lt;label&gt;&lt;input type=""radio"" name="""&amp;F2&amp;""" value=""val_1""&gt; "&amp;B2&amp;"&lt;/label&gt;",
+IF(D2="link","&lt;a href= ""/"&amp;C2&amp;"""&gt;"&amp;B2&amp;"&lt;/a&gt;",
+IF(D2="button","&lt;button type=""button""&gt;"&amp;B2&amp;"Натисніть мене&lt;/button&gt;",
+IF(D2="checkbox","&lt;input type=""checkbox"" id="""&amp;G2&amp;""" name="""&amp;F2&amp;""" value="""&amp;B2&amp;"""&gt;
+&lt;label for="""&amp;G2&amp;"""&gt;"""&amp;B2&amp;"""&lt;/label&gt;",
+IF(D2="label","&lt;label&gt;"""&amp;B2&amp;""":&lt;/label&gt;",
+IF(D2="select",
+"&lt;select id="""&amp;G2&amp;"""&gt;
+    &lt;option value=""option1""&gt;"&amp;B2&amp;" 1&lt;/option&gt;
+    &lt;option value=""option2""&gt;"&amp;B2&amp;" 2&lt;/option&gt;
+    &lt;option value=""option3""&gt;"&amp;B2&amp;" 3&lt;/option&gt;
+&lt;/select&gt;",
+IF(D2="text", "&lt;label for="&amp;G2&amp;"&gt;Введіть текст:&lt;/label&gt;
+&lt;input type=""text"" id="""&amp;G2&amp;""" name="""&amp;F2&amp;"""&gt;",                                                                                                                                                        IF(D2="table",
+"&lt;table border=""1""&gt;
+&lt;tr&gt;
+&lt;th&gt;Заголовок 1&lt;/th&gt;
+&lt;th&gt;Заголовок 2&lt;/th&gt;
+&lt;th&gt;Заголовок 3&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Рядок 1, Стовбець 1&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 2&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 3&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;"
+))))))))&amp;"&lt;/p&gt;"</f>
+        <v>&lt;p&gt;&lt;label&gt;&lt;input type="radio" name="radio name" value="val_1"&gt; test radio&lt;/label&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="F2" t="str">
+        <f>D2&amp;" name"</f>
+        <v>radio name</v>
+      </c>
+      <c r="G2" t="str">
+        <f>D2&amp;" ID"</f>
+        <v>radio ID</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="str">
+        <f t="shared" ref="B3:B9" si="0">"test "&amp;D3</f>
+        <v>test link</v>
+      </c>
+      <c r="C3" s="27"/>
       <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E14" si="0">"&lt;li&gt;&lt;a href= "" /"&amp;C3&amp;"""&gt;"&amp;B3&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= " /general_reports"&gt;Загальні звіти про допомогу&lt;/a&gt;&lt;/li&gt;</v>
+        <v>128</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f t="shared" ref="E3:E9" si="1">"&lt;p&gt;"&amp;
+IF(D3="radio","&lt;label&gt;&lt;input type=""radio"" name="""&amp;F3&amp;""" value=""val_1""&gt; "&amp;B3&amp;"&lt;/label&gt;",
+IF(D3="link","&lt;a href= ""/"&amp;C3&amp;"""&gt;"&amp;B3&amp;"&lt;/a&gt;",
+IF(D3="button","&lt;button type=""button""&gt;"&amp;B3&amp;"Натисніть мене&lt;/button&gt;",
+IF(D3="checkbox","&lt;input type=""checkbox"" id="""&amp;G3&amp;""" name="""&amp;F3&amp;""" value="""&amp;B3&amp;"""&gt;
+&lt;label for="""&amp;G3&amp;"""&gt;"""&amp;B3&amp;"""&lt;/label&gt;",
+IF(D3="label","&lt;label&gt;"""&amp;B3&amp;""":&lt;/label&gt;",
+IF(D3="select",
+"&lt;select id="""&amp;G3&amp;"""&gt;
+    &lt;option value=""option1""&gt;"&amp;B3&amp;" 1&lt;/option&gt;
+    &lt;option value=""option2""&gt;"&amp;B3&amp;" 2&lt;/option&gt;
+    &lt;option value=""option3""&gt;"&amp;B3&amp;" 3&lt;/option&gt;
+&lt;/select&gt;",
+IF(D3="text", "&lt;label for="&amp;G3&amp;"&gt;Введіть текст:&lt;/label&gt;
+&lt;input type=""text"" id="""&amp;G3&amp;""" name="""&amp;F3&amp;"""&gt;",                                                                                                                                                        IF(D3="table",
+"&lt;table border=""1""&gt;
+&lt;tr&gt;
+&lt;th&gt;Заголовок 1&lt;/th&gt;
+&lt;th&gt;Заголовок 2&lt;/th&gt;
+&lt;th&gt;Заголовок 3&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Рядок 1, Стовбець 1&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 2&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 3&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;"
+))))))))&amp;"&lt;/p&gt;"</f>
+        <v>&lt;p&gt;&lt;a href= "/"&gt;test link&lt;/a&gt;&lt;/p&gt;</v>
       </c>
       <c r="F3" t="str">
-        <f>"trtrt"&amp;"/"&amp;C3</f>
-        <v>trtrt/general_reports</v>
+        <f t="shared" ref="F3:F9" si="2">D3&amp;" name"</f>
+        <v>link name</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G9" si="3">D3&amp;" ID"</f>
+        <v>link ID</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;a href= " /feedback"&gt;Подяки відгуки&lt;/a&gt;&lt;/li&gt;</v>
+        <v>test button</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;p&gt;&lt;button type="button"&gt;test buttonНатисніть мене&lt;/button&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>button name</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>button ID</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;a href= " /login"&gt;вхід&lt;/a&gt;&lt;/li&gt;</v>
+        <v>test checkbox</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;p&gt;&lt;input type="checkbox" id="checkbox ID" name="checkbox name" value="test checkbox"&gt;
+&lt;label for="checkbox ID"&gt;"test checkbox"&lt;/label&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>checkbox name</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>checkbox ID</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;a href= " /user_registration"&gt;регістрація&lt;/a&gt;&lt;/li&gt;</v>
+        <v>test label</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;p&gt;&lt;label&gt;"test label":&lt;/label&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>label name</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>label ID</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>test select</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;p&gt;&lt;select id="select ID"&gt;
+    &lt;option value="option1"&gt;test select 1&lt;/option&gt;
+    &lt;option value="option2"&gt;test select 2&lt;/option&gt;
+    &lt;option value="option3"&gt;test select 3&lt;/option&gt;
+&lt;/select&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>select name</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>select ID</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;a href= " /index"&gt;На головну&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>test text</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;p&gt;&lt;label for=text ID&gt;Введіть текст:&lt;/label&gt;
+&lt;input type="text" id="text ID" name="text name"&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>text name</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>text ID</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" t="str">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;a href= " /partners"&gt;Наші партнери&lt;/a&gt;&lt;/li&gt;</v>
+        <v>test table</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;p&gt;&lt;table border="1"&gt;
+&lt;tr&gt;
+&lt;th&gt;Заголовок 1&lt;/th&gt;
+&lt;th&gt;Заголовок 2&lt;/th&gt;
+&lt;th&gt;Заголовок 3&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Рядок 1, Стовбець 1&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 2&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 3&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;&lt;/p&gt;</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>table name</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>table ID</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;a href= " /partners\new"&gt;Стати партнером&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;a href= " /finance_the_project"&gt;Підтримати проект&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;&lt;a href= " /police"&gt;Сповістити про шахрайство&lt;/a&gt;&lt;/li&gt;</v>
+        <v>139</v>
+      </c>
+      <c r="E12" s="18" t="str">
+        <f xml:space="preserve">
+IF(D12="checkbox","&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B12&amp;"&lt;/label&gt;",
+IF(D12="link","&lt;a href= ""/"&amp;C12&amp;"""&gt;"&amp;B12&amp;"&lt;/a&gt;",
+IF(D12="button","&lt;button type=""button""&gt;"&amp;B12&amp;"Натисніть мене&lt;/button&gt;",
+IF(D12="checkbox","&lt;input type=""checkbox"" id="""&amp;G12&amp;""" name="""&amp;F12&amp;""" value="""&amp;B12&amp;"&gt;
+&lt;label for="""&amp;G12&amp;"""&gt;"""&amp;B12&amp;":&lt;/label&gt;",
+IF(D12="label","&lt;label&gt;"""&amp;B12&amp;""":&lt;/label&gt;",
+IF(D12="select",
+"&lt;select id="""&amp;G12&amp;"""&gt;
+    &lt;option value=""option1""&gt;"&amp;B12&amp;" 1&lt;/option&gt;
+    &lt;option value=""option2""&gt;"&amp;B12&amp;" 2&lt;/option&gt;
+    &lt;option value=""option3""&gt;"&amp;B12&amp;" 3&lt;/option&gt;
+&lt;/select&gt;",
+IF(D12="text", "&lt;label for="&amp;G12&amp;"&gt;Введіть текст:&lt;/label&gt;
+&lt;input type=""text"" id="""&amp;G12&amp;""" name="""&amp;F12&amp;"""&gt;",
+IF(D12="tabel",
+"&lt;table border=""1""&gt;
+&lt;tr&gt;
+&lt;th&gt;Заголовок 1&lt;/th&gt;
+&lt;th&gt;Заголовок 2&lt;/th&gt;
+&lt;th&gt;Заголовок 3&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Рядок 1, Стовбець 1&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 2&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 3&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;"
+))))))))</f>
+        <v>&lt;table border="1"&gt;
+&lt;tr&gt;
+&lt;th&gt;Заголовок 1&lt;/th&gt;
+&lt;th&gt;Заголовок 2&lt;/th&gt;
+&lt;th&gt;Заголовок 3&lt;/th&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Рядок 1, Стовбець 1&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 2&lt;/td&gt;
+&lt;td&gt;Рядок 1, Стовбець 3&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
         <v>109</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="18" t="str">
+        <f xml:space="preserve">
+IF(D13="checkbox","&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B13&amp;"&lt;/label&gt;",
+IF(D13="link","&lt;a href= ""/"&amp;C13&amp;"""&gt;"&amp;B13&amp;"&lt;/a&gt;",
+IF(D13="button","&lt;button type=""button""&gt;"&amp;B13&amp;"Натисніть мене&lt;/button&gt;",
+IF(D13="checkbox","&lt;input type=""checkbox"" id="""&amp;G13&amp;""" name="""&amp;F13&amp;""" value="""&amp;B13&amp;"&gt;
+&lt;label for="""&amp;G13&amp;"""&gt;"""&amp;B13&amp;":&lt;/label&gt;",
+IF(D13="label","&lt;label&gt;"""&amp;B13&amp;""":&lt;/label&gt;",
+IF(D13="select",
+"&lt;select id="""&amp;G13&amp;"""&gt;
+    &lt;option value=""option1""&gt;"&amp;B13&amp;" 1&lt;/option&gt;
+    &lt;option value=""option2""&gt;"&amp;B13&amp;" 2&lt;/option&gt;
+    &lt;option value=""option3""&gt;"&amp;B13&amp;" 3&lt;/option&gt;
+&lt;/select&gt;",
+IF(D13="text", "&lt;label for="&amp;G13&amp;"&gt;Введіть текст:&lt;/label&gt;
+&lt;input type=""text"" id="""&amp;G13&amp;""" name="""&amp;F13&amp;"""&gt;",
+)))))))</f>
+        <v>&lt;a href= "/general_reports"&gt;Загальні звіти про допомогу&lt;/a&gt;</v>
+      </c>
+      <c r="F13" t="str">
+        <f>"trtrt"&amp;"/"&amp;C13</f>
+        <v>trtrt/general_reports</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f xml:space="preserve">
+IF(D14="checkbox","&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B14&amp;"&lt;/label&gt;",
+IF(D14="link","&lt;a href= ""/"&amp;C14&amp;"""&gt;"&amp;B14&amp;"&lt;/a&gt;",
+IF(D14="button","&lt;button type=""button""&gt;"&amp;B14&amp;"Натисніть мене&lt;/button&gt;",
+IF(D14="checkbox","&lt;input type=""checkbox"" id="""&amp;G14&amp;""" name="""&amp;F14&amp;""" value="""&amp;B14&amp;"&gt;
+&lt;label for="""&amp;G14&amp;"""&gt;"""&amp;B14&amp;":&lt;/label&gt;",
+IF(D14="label","&lt;label&gt;"""&amp;B14&amp;""":&lt;/label&gt;",
+)))))</f>
+        <v>&lt;a href= "/feedback"&gt;Подяки відгуки&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="18" t="str">
+        <f xml:space="preserve">
+IF(D15="checkbox","&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B15&amp;"&lt;/label&gt;",
+IF(D15="link","&lt;a href= ""/"&amp;C15&amp;"""&gt;"&amp;B15&amp;"&lt;/a&gt;",
+IF(D15="button","&lt;button type=""button""&gt;"&amp;B15&amp;"Натисніть мене&lt;/button&gt;",
+IF(D15="checkbox","&lt;input type=""checkbox"" id="""&amp;G15&amp;""" name="""&amp;F15&amp;""" value="""&amp;B15&amp;"&gt;
+&lt;label for="""&amp;G15&amp;"""&gt;"""&amp;B15&amp;":&lt;/label&gt;",
+IF(D15="label","&lt;label&gt;"""&amp;B15&amp;""":&lt;/label&gt;",
+)))))</f>
+        <v>&lt;a href= "/login"&gt;вхід&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f xml:space="preserve">
+IF(D16="checkbox","&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B16&amp;"&lt;/label&gt;",
+IF(D16="link","&lt;a href= ""/"&amp;C16&amp;"""&gt;"&amp;B16&amp;"&lt;/a&gt;",
+IF(D16="button","&lt;button type=""button""&gt;"&amp;B16&amp;"Натисніть мене&lt;/button&gt;",
+IF(D16="checkbox","&lt;input type=""checkbox"" id="""&amp;G16&amp;""" name="""&amp;F16&amp;""" value="""&amp;B16&amp;"&gt;
+&lt;label for="""&amp;G16&amp;"""&gt;"""&amp;B16&amp;":&lt;/label&gt;",
+IF(D16="label","&lt;label&gt;"""&amp;B16&amp;""":&lt;/label&gt;",
+)))))</f>
+        <v>&lt;a href= "/user_registration"&gt;регістрація&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="18" t="str">
+        <f xml:space="preserve">
+IF(D17="checkbox","&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B17&amp;"&lt;/label&gt;",
+IF(D17="link","&lt;a href= ""/"&amp;C17&amp;"""&gt;"&amp;B17&amp;"&lt;/a&gt;",
+IF(D17="button","&lt;button type=""button""&gt;"&amp;B17&amp;"Натисніть мене&lt;/button&gt;",
+IF(D17="checkbox","&lt;input type=""checkbox"" id="""&amp;G17&amp;""" name="""&amp;F17&amp;""" value="""&amp;B17&amp;"&gt;
+&lt;label for="""&amp;G17&amp;"""&gt;"""&amp;B17&amp;":&lt;/label&gt;",
+IF(D17="label","&lt;label&gt;"""&amp;B17&amp;""":&lt;/label&gt;","---------"
+)))))</f>
+        <v>---------</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ref="E18:E24" si="4">"&lt;li&gt;&lt;a href= "" /"&amp;C18&amp;"""&gt;"&amp;B18&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= " /index"&gt;На головну&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;li&gt;&lt;a href= " /partners"&gt;Наші партнери&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;li&gt;&lt;a href= " /partners\new"&gt;Стати партнером&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;li&gt;&lt;a href= " /finance_the_project"&gt;Підтримати проект&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;li&gt;&lt;a href= " /police"&gt;Сповістити про шахрайство&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" s="24"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;&lt;a href= " /donate\main"&gt;хочу допомогти&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="18" t="str">
+        <f>"&lt;a href= ""/"&amp;C25&amp;"""&gt;"&amp;B25&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/registration"&gt;реєстрація&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C15&amp;"""&gt;"&amp;B15&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/registration"&gt;реєстрація&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="18" t="str">
+        <f t="shared" ref="E26:E35" si="5">"&lt;li&gt;&lt;a href= ""/"&amp;C26&amp;"""&gt;"&amp;B26&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= "/chats"&gt;чати&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="18" t="str">
-        <f t="shared" ref="E16:E25" si="1">"&lt;li&gt;&lt;a href= ""/"&amp;C16&amp;"""&gt;"&amp;B16&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/chats"&gt;чати&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/alarm"&gt;будильник&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/alarm"&gt;будильник&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/bookmarks"&gt;закладки&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/bookmarks"&gt;закладки&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="C29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/reports"&gt;звіти&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/reports"&gt;звіти&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="C30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/activity"&gt;активність&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/activity"&gt;активність&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/history_of_aid_granted"&gt;історія наданних допомог&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/history_of_aid_granted"&gt;історія наданних допомог&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/leave_review_about_the_service"&gt;залшити відгук про сервіс&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/leave_review_about_the_service"&gt;залшити відгук про сервіс&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/financial aid"&gt;фінансова допомога&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/financial aid"&gt;фінансова допомога&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/commodity aid"&gt;товарна допомога&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/commodity aid"&gt;товарна допомога&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>&lt;li&gt;&lt;a href= "/physical aid"&gt;фізична допомога&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;a href= "/physical aid"&gt;фізична допомога&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B27&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фінансово&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B28&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фізично&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B29&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти товарно&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="21" t="str">
-        <f>"&lt;a href= ""/"&amp;C32&amp;"""&gt;"&amp;B32&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/thermometer"&gt;Термометр&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B34&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фінансово&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B35&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фізично&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="18" t="str">
-        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B36&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти товарно&lt;/label&gt;</v>
-      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="E37" s="18" t="str">
+        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B37&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фінансово&lt;/label&gt;</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>43</v>
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" s="18" t="str">
-        <f t="shared" ref="E38:E43" si="2">"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B38&amp;"&lt;/label&gt;"</f>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Нові&lt;/label&gt;</v>
+        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B38&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фізично&lt;/label&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
+      <c r="A39" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E39" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Кому ніколи не допомогали&lt;/label&gt;</v>
+        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B39&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти товарно&lt;/label&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Похилий вік&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E41" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Сироти&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Інваліди&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Прізвище&lt;/label&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
+        <f>IF(D41="checkbox","&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B41&amp;"&lt;/label&gt;",IF(D41="link","&lt;a href= ""/"&amp;C42&amp;"""&gt;"&amp;B42&amp;"&lt;/a&gt;"))</f>
+        <v>&lt;a href= "/thermometer"&gt;Термометр&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="21" t="str">
+        <f>"&lt;a href= ""/"&amp;C42&amp;"""&gt;"&amp;B42&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/thermometer"&gt;Термометр&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="19"/>
+        <v>129</v>
+      </c>
+      <c r="E44" s="18" t="str">
+        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B44&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фінансово&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="18" t="str">
+        <f>"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B45&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти фізично&lt;/label&gt;</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C46&amp;"""&gt;"&amp;B46&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/filter"&gt;фільтр&lt;/a&gt;&lt;/li&gt;</v>
+        <f>IF(D46="checkbox","&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B46&amp;"&lt;/label&gt;",IF(D46="link","&lt;a href= ""/"&amp;C47&amp;"""&gt;"&amp;B47&amp;"&lt;/a&gt;"))</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Хочу допомогти товарно&lt;/label&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="18" t="str">
-        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C47&amp;"""&gt;"&amp;B47&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href= "/randomizer"&gt;рандомайзер&lt;/a&gt;&lt;/li&gt;</v>
-      </c>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>51</v>
+      <c r="A48" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="E48" s="18" t="str">
+        <f t="shared" ref="E48:E53" si="6">"&lt;label&gt;&lt;input type=""checkbox""&gt;"&amp;B48&amp;"&lt;/label&gt;"</f>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Нові&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E49" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C49&amp;"""&gt;"&amp;B49&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/chat"&gt;чат&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Кому ніколи не допомогали&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E50" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B50&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;додати до закладок&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Похилий вік&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C51&amp;"""&gt;"&amp;B51&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/aid_history"&gt;історія допомог&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Сироти&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C52&amp;"""&gt;"&amp;B52&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/remind"&gt;нагадати&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Інваліди&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E53" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C53&amp;"""&gt;"&amp;B53&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/complaint"&gt;скарга&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>&lt;label&gt;&lt;input type="checkbox"&gt;Прізвище&lt;/label&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="18"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D56" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="18"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="E56" s="18" t="str">
+        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C56&amp;"""&gt;"&amp;B56&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= "/filter"&gt;фільтр&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="18"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="E57" s="18" t="str">
+        <f>"&lt;li&gt;&lt;a href= ""/"&amp;C57&amp;"""&gt;"&amp;B57&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
+        <v>&lt;li&gt;&lt;a href= "/randomizer"&gt;рандомайзер&lt;/a&gt;&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E59" s="18" t="str">
-        <f>"&lt;a name="""&amp;F59&amp; """ href= ""/"&amp;C59&amp;"""&gt;"&amp;B59&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a name="help" href= "/donate\main"&gt;допомогти&lt;/a&gt;</v>
-      </c>
-      <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" t="str">
-        <f>F59&amp;"_id"</f>
-        <v>help_id</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;a href= ""/"&amp;C59&amp;"""&gt;"&amp;B59&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/chat"&gt;чат&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="18"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="E60" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B60&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;додати до закладок&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E61" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B61&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;створити list&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;a href= ""/"&amp;C61&amp;"""&gt;"&amp;B61&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/aid_history"&gt;історія допомог&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D62" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E62" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B62&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;додати&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f>"&lt;a href= ""/"&amp;C62&amp;"""&gt;"&amp;B62&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/remind"&gt;нагадати&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="E63" s="18" t="str">
+        <f>"&lt;a href= ""/"&amp;C63&amp;"""&gt;"&amp;B63&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/complaint"&gt;скарга&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="22"/>
-    </row>
-    <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67" s="18" t="str">
-        <f>"&lt;a href= ""/"&amp;C67&amp;"""&gt;"&amp;B67&amp;"&lt;/a&gt;"</f>
-        <v>&lt;a href= "/apply_help"&gt;Оформити допомогу&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="E67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="19"/>
-    </row>
-    <row r="70" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="19"/>
-    </row>
-    <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="18" t="str">
+        <f>"&lt;a name="""&amp;F69&amp; """ href= ""/"&amp;C69&amp;"""&gt;"&amp;B69&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a name="help" href= "/donate\main"&gt;допомогти&lt;/a&gt;</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" t="str">
+        <f>F69&amp;"_id"</f>
+        <v>help_id</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B71&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;створити list&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="E72" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B72&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;додати&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E73" s="18"/>
     </row>
-    <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E74" s="18"/>
     </row>
-    <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="1:7" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E75" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B75&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;ок&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E76" s="18"/>
     </row>
-    <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="18"/>
-    </row>
-    <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="E77" s="18" t="str">
+        <f>"&lt;a href= ""/"&amp;C77&amp;"""&gt;"&amp;B77&amp;"&lt;/a&gt;"</f>
+        <v>&lt;a href= "/apply_help"&gt;Оформити допомогу&lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E78" s="18"/>
     </row>
-    <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E79" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B79&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;створити&lt;/button&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E80" s="18"/>
-    </row>
-    <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E81" s="18" t="str">
-        <f>"&lt;button&gt;"&amp;B81&amp;"&lt;/button&gt;"</f>
-        <v>&lt;button&gt;опублікувати відгук&lt;/button&gt;</v>
-      </c>
+    <row r="79" spans="1:7" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="19"/>
     </row>
     <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="E82" s="18"/>
     </row>
+    <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" s="18"/>
+    </row>
+    <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E84" s="18"/>
+    </row>
+    <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B85&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;ок&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="18"/>
+    </row>
+    <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="18"/>
+    </row>
+    <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="18"/>
+    </row>
+    <row r="89" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B89&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;створити&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="18"/>
+    </row>
+    <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="18" t="str">
+        <f>"&lt;button&gt;"&amp;B91&amp;"&lt;/button&gt;"</f>
+        <v>&lt;button&gt;опублікувати відгук&lt;/button&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="18"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>